--- a/biology/Zoologie/Campagnol_nordique/Campagnol_nordique.xlsx
+++ b/biology/Zoologie/Campagnol_nordique/Campagnol_nordique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus oeconomus
 Le Campagnol nordique (Microtus oeconomus) est une espèce de rongeur de la famille des Cridétidés encore abondante dans tout l'hémisphère nord.
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans le nord de l'Amérique du Nord, de l'Europe et de l'Asie. Il vit dans la végétation dense aux abords des lacs et des cours d'eau. On le trouve aussi dans la toundra, la taïga, les steppes et les semi-déserts[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans le nord de l'Amérique du Nord, de l'Europe et de l'Asie. Il vit dans la végétation dense aux abords des lacs et des cours d'eau. On le trouve aussi dans la toundra, la taïga, les steppes et les semi-déserts.
 </t>
         </is>
       </c>
